--- a/Gang og Sykkel varslingsystem/Komponentliste.xlsx
+++ b/Gang og Sykkel varslingsystem/Komponentliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu.sharepoint.com/sites/o365_DugelegProsjekt/Shared Documents/General/Gang og Sykkel varslingsystem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emile\Documents\Dugeleg\Gang og Sykkel varslingsystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="598" documentId="11_76A6F4E0D7503C526EF59792EBA098825550E92B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{557825D6-328E-4035-A78A-B5883D894972}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A22DC7-43D8-45CA-A002-DCFE552645E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;kr&quot;\ * #,##0.00_-;\-&quot;kr&quot;\ * #,##0.00_-;_-&quot;kr&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;kr&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,13 +704,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B22" sqref="B1:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" customWidth="1"/>
@@ -719,7 +722,7 @@
     <col min="7" max="7" width="62.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="109.5" customHeight="1">
+    <row r="1" spans="2:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -739,7 +742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
@@ -760,7 +763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
@@ -781,7 +784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
@@ -802,7 +805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>15</v>
       </c>
@@ -820,7 +823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>17</v>
       </c>
@@ -841,7 +844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
@@ -862,7 +865,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>20</v>
       </c>
@@ -876,14 +879,14 @@
         <v>612.15</v>
       </c>
       <c r="F8" s="12">
-        <f>D8*E8</f>
+        <f t="shared" ref="F8:F13" si="1">D8*E8</f>
         <v>1224.3</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>25</v>
       </c>
@@ -897,14 +900,14 @@
         <v>141.9</v>
       </c>
       <c r="F9" s="12">
-        <f>D9*E9</f>
+        <f t="shared" si="1"/>
         <v>283.8</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>28</v>
       </c>
@@ -918,14 +921,14 @@
         <v>927.11940000000004</v>
       </c>
       <c r="F10" s="16">
-        <f>D10*E10</f>
+        <f t="shared" si="1"/>
         <v>1854.2388000000001</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>31</v>
       </c>
@@ -939,14 +942,14 @@
         <v>183.7</v>
       </c>
       <c r="F11" s="12">
-        <f>D11*E11</f>
+        <f t="shared" si="1"/>
         <v>367.4</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>34</v>
       </c>
@@ -960,14 +963,14 @@
         <v>146.08000000000001</v>
       </c>
       <c r="F12" s="12">
-        <f>D12*E12</f>
+        <f t="shared" si="1"/>
         <v>292.16000000000003</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>37</v>
       </c>
@@ -981,14 +984,14 @@
         <v>30.16</v>
       </c>
       <c r="F13" s="16">
-        <f>D13*E13</f>
+        <f t="shared" si="1"/>
         <v>150.80000000000001</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>40</v>
       </c>
@@ -1006,7 +1009,7 @@
         <v>11551.728799999999</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15" customHeight="1">
+    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
@@ -1031,13 +1034,29 @@
     <hyperlink ref="G9" r:id="rId12" xr:uid="{A1B90D82-E655-4639-B49C-6F136B862A44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="landscape" r:id="rId13"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010063A40A4A8D2C6B4CA564D8EE51BC8BE9" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="23c42a97dd681451c13e7af1abeef51f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="db803184-edef-4b28-ac3d-3addf7576905" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2981854274215188bf3df9536b54658c" ns2:_="">
     <xsd:import namespace="db803184-edef-4b28-ac3d-3addf7576905"/>
@@ -1175,29 +1194,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA4953B4-0863-41C3-9103-173DB9CA391E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5B8CCA5-46C5-4FE2-8F8D-E0590993F707}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C585050-D745-4175-AE4B-4C2BE217B023}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C585050-D745-4175-AE4B-4C2BE217B023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5B8CCA5-46C5-4FE2-8F8D-E0590993F707}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA4953B4-0863-41C3-9103-173DB9CA391E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="db803184-edef-4b28-ac3d-3addf7576905"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Gang og Sykkel varslingsystem/Komponentliste.xlsx
+++ b/Gang og Sykkel varslingsystem/Komponentliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emile\Documents\Dugeleg\Gang og Sykkel varslingsystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emile\PycharmProjects\AIS2201_Signalbehandling\Dugeleg\Gang og Sykkel varslingsystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A22DC7-43D8-45CA-A002-DCFE552645E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4809A794-C0BD-4CC4-923B-EC27DC8F4869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="23160" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Navn</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Single Board Computer</t>
   </si>
   <si>
-    <t>https://no.rs-online.com/web/p/processor-development-tools/1999831?gb=s</t>
-  </si>
-  <si>
     <t>Okdo Kamera</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>Lagring opperativ, prog, database</t>
   </si>
   <si>
-    <t>https://no.rs-online.com/web/p/sd-cards/2740342</t>
-  </si>
-  <si>
     <t>DC Power supply</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
     <t>Kobling til jetson nano</t>
   </si>
   <si>
-    <t>https://no.rs-online.com/web/p/dc-power-connectors/7051522</t>
-  </si>
-  <si>
     <t>4g Adapter</t>
   </si>
   <si>
@@ -162,6 +153,48 @@
   </si>
   <si>
     <t>Pris per modul:</t>
+  </si>
+  <si>
+    <t>https://no.rs-online.com/web/p/processor-development-tools/2520055?gb=s</t>
+  </si>
+  <si>
+    <t>https://no.rs-online.com/web/p/sd-cards/2629727</t>
+  </si>
+  <si>
+    <t>Modul</t>
+  </si>
+  <si>
+    <t>Led</t>
+  </si>
+  <si>
+    <t>Diverse</t>
+  </si>
+  <si>
+    <t>Strøm Powersupply</t>
+  </si>
+  <si>
+    <t>https://no.rs-online.com/web/p/power-cords/6266672?gb=s</t>
+  </si>
+  <si>
+    <t>Leder</t>
+  </si>
+  <si>
+    <t>RS PRO Red 0.75 mm² Hook Up Wire</t>
+  </si>
+  <si>
+    <t>https://no.rs-online.com/web/p/hook-up-wire/0361686</t>
+  </si>
+  <si>
+    <t>https://no.rs-online.com/web/p/dc-power-connectors/8104591</t>
+  </si>
+  <si>
+    <t>Skrue</t>
+  </si>
+  <si>
+    <t>RS PRO Pozidriv Pan A2 304 Stainless Steel Machine Screws DIN 7985, M2x6mm</t>
+  </si>
+  <si>
+    <t>https://no.rs-online.com/web/p/machine-screws/0528693</t>
   </si>
 </sst>
 </file>
@@ -330,12 +363,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -346,7 +380,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1"/>
@@ -355,8 +388,12 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hyperkobling" xfId="3" builtinId="8"/>
     <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Valuta" xfId="1" builtinId="4"/>
@@ -707,22 +744,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B1:G22"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="6" width="15.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="62.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.265625" customWidth="1"/>
+    <col min="3" max="3" width="28.86328125" customWidth="1"/>
+    <col min="4" max="4" width="11.86328125" customWidth="1"/>
+    <col min="5" max="6" width="15.1328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="62.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -742,7 +779,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
@@ -753,269 +793,335 @@
         <v>3</v>
       </c>
       <c r="E2" s="9">
-        <v>1809.92</v>
+        <v>1792</v>
       </c>
       <c r="F2" s="9">
         <f>D2*E2</f>
-        <v>5429.76</v>
-      </c>
-      <c r="G2" s="10" t="s">
+        <v>5376</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>132.26</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <f>D3*E3</f>
         <v>529.04</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="C4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <f>D4*E4</f>
         <v>93</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B5" s="10" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>77.989999999999995</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <f>D5*E5</f>
         <v>155.97999999999999</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B6" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="C6" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" s="12">
-        <v>327.24</v>
-      </c>
-      <c r="F6" s="12">
+      <c r="E6" s="11">
+        <v>575.96</v>
+      </c>
+      <c r="F6" s="11">
         <f>D6*E6</f>
-        <v>981.72</v>
-      </c>
-      <c r="G6" s="13" t="s">
+        <v>1727.88</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>189.53</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <f t="shared" ref="F7" si="0">D7*E7</f>
         <v>189.53</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+      <c r="G7" s="12" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B8" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>612.15</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <f t="shared" ref="F8:F13" si="1">D8*E8</f>
         <v>1224.3</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" s="11">
+        <v>9.0860000000000003</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="1"/>
+        <v>45.43</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D9">
+      <c r="D10" s="14">
         <v>2</v>
       </c>
-      <c r="E9" s="12">
-        <v>141.9</v>
-      </c>
-      <c r="F9" s="12">
-        <f t="shared" si="1"/>
-        <v>283.8</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="15">
-        <v>2</v>
-      </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <v>927.11940000000004</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <f t="shared" si="1"/>
         <v>1854.2388000000001</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
-        <v>31</v>
+      <c r="G10" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>183.7</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <f t="shared" si="1"/>
         <v>367.4</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
-        <v>34</v>
+      <c r="G11" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B12" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>146.08000000000001</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <f t="shared" si="1"/>
         <v>292.16000000000003</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="15">
+      <c r="G12" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="14">
         <v>5</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>30.16</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <f t="shared" si="1"/>
         <v>150.80000000000001</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>134.97</v>
+      </c>
+      <c r="F14" s="1">
+        <f>Tabell1[[#This Row],[Antall]]*Tabell1[[#This Row],[Pris]]</f>
+        <v>269.94</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="6.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>427.35</v>
+      </c>
+      <c r="F15" s="1">
+        <f>Tabell1[[#This Row],[Pris]]</f>
+        <v>427.35</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="5.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1">
+        <v>76.45</v>
+      </c>
+      <c r="F16" s="1">
+        <f>Tabell1[[#This Row],[Pris]]</f>
+        <v>76.45</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3">
         <f>SUBTOTAL(109,D2:D19)</f>
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="E20" s="4">
         <f>SUBTOTAL(109,E2:E19)</f>
-        <v>4587.3494000000001</v>
+        <v>5324.1054000000004</v>
       </c>
       <c r="F20" s="5">
         <f>SUM(F2:F17)</f>
-        <v>11551.728799999999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12779.498799999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C22" s="6">
         <f>E2+E7+E3*2+E4+E5+E6+E12+E11+E13+E10</f>
-        <v>3965.5593999999996</v>
+        <v>4196.3593999999994</v>
       </c>
     </row>
   </sheetData>
@@ -1032,31 +1138,19 @@
     <hyperlink ref="G5" r:id="rId10" xr:uid="{99CF26B4-08AD-4860-8170-6061C5BC022F}"/>
     <hyperlink ref="G8" r:id="rId11" xr:uid="{ABB6CE58-C965-44A1-83F1-7322B1A310A2}"/>
     <hyperlink ref="G9" r:id="rId12" xr:uid="{A1B90D82-E655-4639-B49C-6F136B862A44}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{3BDA531A-3BD8-4A7E-8592-7C0B40C572DF}"/>
+    <hyperlink ref="G15" r:id="rId14" xr:uid="{53689D81-23CA-4BB1-B0C1-AD93A703A76D}"/>
+    <hyperlink ref="G16" r:id="rId15" xr:uid="{45A03CEA-66DA-48BC-BCD0-5956DBDF8C68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="landscape" r:id="rId13"/>
+  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="landscape" r:id="rId16"/>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010063A40A4A8D2C6B4CA564D8EE51BC8BE9" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="23c42a97dd681451c13e7af1abeef51f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="db803184-edef-4b28-ac3d-3addf7576905" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2981854274215188bf3df9536b54658c" ns2:_="">
     <xsd:import namespace="db803184-edef-4b28-ac3d-3addf7576905"/>
@@ -1194,24 +1288,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5B8CCA5-46C5-4FE2-8F8D-E0590993F707}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C585050-D745-4175-AE4B-4C2BE217B023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA4953B4-0863-41C3-9103-173DB9CA391E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1227,4 +1319,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C585050-D745-4175-AE4B-4C2BE217B023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5B8CCA5-46C5-4FE2-8F8D-E0590993F707}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>